--- a/dadosclientes.xlsx
+++ b/dadosclientes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Dias\Desktop\Projeto Ficha Pabu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Dias\Desktop\Projeto FichaRapida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE0155-4578-4522-85AA-3EDE1A8D3EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB33F08-323D-4CFA-BE83-9A25A70AEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="379">
   <si>
     <t xml:space="preserve">Tipo venda 
 </t>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t>Endereço cobrança diferente do faturamento?</t>
+  </si>
+  <si>
+    <t>Outros</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1197,6 +1200,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1311,7 +1323,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1380,6 +1392,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1597,16 +1625,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D999D-1E4E-499A-A1C1-839E342C4E95}">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18" style="31" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
@@ -1695,7 +1722,7 @@
       <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1757,7 +1784,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1820,7 +1847,7 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1882,7 +1909,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1942,9 +1969,10 @@
       <c r="T5" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="U5" s="27"/>
     </row>
     <row r="6" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2006,7 +2034,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2068,7 +2096,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2130,7 +2158,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2192,7 +2220,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2254,7 +2282,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2316,7 +2344,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2378,7 +2406,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2435,12 +2463,12 @@
       <c r="S13" s="24">
         <v>1500000</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2502,7 +2530,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2564,7 +2592,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2621,9 +2649,12 @@
       <c r="S16" s="24">
         <v>500000</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="T16" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2680,9 +2711,12 @@
       <c r="S17" s="24">
         <v>800000</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="T17" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2739,9 +2773,12 @@
       <c r="S18" s="24">
         <v>600000</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="T18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2798,9 +2835,12 @@
       <c r="S19" s="24">
         <v>900000</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="T19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2857,9 +2897,12 @@
       <c r="S20" s="24">
         <v>400000</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="T20" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2916,9 +2959,12 @@
       <c r="S21" s="24">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="T21" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2975,9 +3021,12 @@
       <c r="S22" s="24">
         <v>600000</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="T22" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3034,9 +3083,12 @@
       <c r="S23" s="24">
         <v>350000</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="T23" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3093,9 +3145,12 @@
       <c r="S24" s="24">
         <v>750000</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="T24" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3152,9 +3207,12 @@
       <c r="S25" s="24">
         <v>820000</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="T25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -3211,9 +3269,12 @@
       <c r="S26" s="24">
         <v>670000</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="T26" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3270,9 +3331,12 @@
       <c r="S27" s="24">
         <v>950000</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="T27" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -3329,9 +3393,12 @@
       <c r="S28" s="4">
         <v>300000</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="T28" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3388,9 +3455,12 @@
       <c r="S29" s="4">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="T29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3447,9 +3517,12 @@
       <c r="S30" s="4">
         <v>500000</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="T30" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3506,9 +3579,12 @@
       <c r="S31" s="4">
         <v>350000</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="T31" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -3565,9 +3641,12 @@
       <c r="S32" s="4">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="T32" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3624,9 +3703,12 @@
       <c r="S33" s="4">
         <v>750000</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="T33" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3683,9 +3765,12 @@
       <c r="S34" s="4">
         <v>650000</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="T34" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3742,9 +3827,12 @@
       <c r="S35" s="4">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="T35" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3801,9 +3889,12 @@
       <c r="S36" s="4">
         <v>900000</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="T36" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3860,9 +3951,12 @@
       <c r="S37" s="4">
         <v>400000</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="T37" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3919,9 +4013,12 @@
       <c r="S38" s="4">
         <v>600000</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="T38" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3978,9 +4075,24 @@
       <c r="S39" s="4">
         <v>1400000</v>
       </c>
+      <c r="T39" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="T43" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15 F40:F1048576" xr:uid="{E4468489-0D84-4312-B722-D839B891EE9D}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
@@ -3993,10 +4105,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:A27" xr:uid="{5EA71959-E346-40E4-80B4-EC0113F04581}">
       <formula1>"A vista,A prazo,Alteração,Entre 120 e 180,Inativo&gt;180"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{D074EFEF-ED77-4CCD-B1BB-9E9F5EC60830}">
+      <formula1>"Auto Peças,Transportadora,Retífica,Oficina,Posto de Gasolina,Usina,Outros"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="N15" r:id="rId1" xr:uid="{35751BB8-8F99-4E40-BAF7-651914EF8116}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>